--- a/data/outputs/数学期刊(下)_altmetric/51Annals of Mathematics and Artificial Intelligence.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/51Annals of Mathematics and Artificial Intelligence.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE50"/>
+  <dimension ref="A1:CF50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1537,6 +1548,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1782,6 +1796,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2033,6 +2050,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2292,6 +2312,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2539,6 +2562,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2794,6 +2820,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3049,6 +3078,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3300,6 +3332,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3553,6 +3588,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3814,6 +3852,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4065,6 +4106,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4316,6 +4360,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4575,6 +4622,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4828,6 +4878,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5077,6 +5130,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,6 +5378,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5581,6 +5640,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5836,6 +5898,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6087,6 +6152,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6338,6 +6406,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6597,6 +6668,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6848,6 +6922,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7107,6 +7184,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7358,6 +7438,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7614,6 +7697,9 @@
       </c>
       <c r="CE28" t="n">
         <v>0</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -7858,6 +7944,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8111,6 +8200,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8356,6 +8448,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8613,6 +8708,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8858,6 +8956,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9109,6 +9210,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9360,6 +9464,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9613,6 +9720,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9862,6 +9972,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10113,6 +10226,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10370,6 +10486,9 @@
         <v>0</v>
       </c>
       <c r="CE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10615,6 +10734,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10862,6 +10984,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11117,6 +11242,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11356,6 +11484,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11613,6 +11744,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11858,6 +11992,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12109,6 +12246,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12364,6 +12504,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12621,6 +12764,9 @@
         <v>0</v>
       </c>
       <c r="CE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12866,6 +13012,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13107,6 +13256,9 @@
       <c r="CE50" t="n">
         <v>1</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
